--- a/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Newcreateloan1.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="Repayment schedule" sheetId="1" r:id="rId3"/>
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
-    <sheet name="Floating Interest Rates" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -168,12 +167,6 @@
   </si>
   <si>
     <t>disburseloan</t>
-  </si>
-  <si>
-    <t>From Date</t>
-  </si>
-  <si>
-    <t>Interest Rate</t>
   </si>
   <si>
     <t>Interestratedifferential</t>
@@ -192,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,14 +210,6 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -310,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -352,10 +337,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -662,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -685,7 +667,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,19 +687,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -818,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +924,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +939,7 @@
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -1041,6 +1023,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
@@ -1081,6 +1064,9 @@
       <c r="N3" s="14">
         <v>0</v>
       </c>
+      <c r="O3" s="14">
+        <v>0</v>
+      </c>
       <c r="P3" s="14">
         <v>866.66</v>
       </c>
@@ -1124,6 +1110,9 @@
       <c r="N4" s="14">
         <v>0</v>
       </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
       <c r="P4" s="14">
         <v>883.33</v>
       </c>
@@ -1167,6 +1156,9 @@
       <c r="N5" s="14">
         <v>0</v>
       </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
       <c r="P5" s="14">
         <v>900</v>
       </c>
@@ -1210,6 +1202,9 @@
       <c r="N6" s="14">
         <v>0</v>
       </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
       <c r="P6" s="14">
         <v>895.83</v>
       </c>
@@ -1253,6 +1248,9 @@
       <c r="N7" s="14">
         <v>0</v>
       </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
       <c r="P7" s="14">
         <v>888.89</v>
       </c>
@@ -1296,6 +1294,9 @@
       <c r="N8" s="14">
         <v>0</v>
       </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
       <c r="P8" s="14">
         <v>881.94</v>
       </c>
@@ -1339,6 +1340,9 @@
       <c r="N9" s="14">
         <v>0</v>
       </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
       <c r="P9" s="14">
         <v>875</v>
       </c>
@@ -1382,6 +1386,9 @@
       <c r="N10" s="14">
         <v>0</v>
       </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
       <c r="P10" s="14">
         <v>868.05</v>
       </c>
@@ -1425,6 +1432,9 @@
       <c r="N11" s="14">
         <v>0</v>
       </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
       <c r="P11" s="14">
         <v>861.11</v>
       </c>
@@ -1468,6 +1478,9 @@
       <c r="N12" s="14">
         <v>0</v>
       </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
       <c r="P12" s="14">
         <v>854.16</v>
       </c>
@@ -1511,6 +1524,9 @@
       <c r="N13" s="14">
         <v>0</v>
       </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
       <c r="P13" s="14">
         <v>847.22</v>
       </c>
@@ -1552,6 +1568,9 @@
         <v>0</v>
       </c>
       <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
         <v>0</v>
       </c>
       <c r="P14" s="14">
@@ -1656,68 +1675,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>42186</v>
-      </c>
-      <c r="B3" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>42156</v>
-      </c>
-      <c r="B4" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>42125</v>
-      </c>
-      <c r="B5" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>42096</v>
-      </c>
-      <c r="B6" s="14">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Newcreateloan1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -184,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,6 +356,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -398,7 +406,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,9 +439,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,6 +491,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -800,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -921,10 +963,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,12 +984,13 @@
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -987,17 +1030,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15">
@@ -1024,8 +1068,9 @@
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -1061,17 +1106,18 @@
       <c r="M3" s="14">
         <v>0</v>
       </c>
-      <c r="N3" s="14">
-        <v>0</v>
-      </c>
+      <c r="N3" s="14"/>
       <c r="O3" s="14">
         <v>0</v>
       </c>
       <c r="P3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
         <v>866.66</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -1107,17 +1153,18 @@
       <c r="M4" s="14">
         <v>0</v>
       </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
+      <c r="N4" s="14"/>
       <c r="O4" s="14">
         <v>0</v>
       </c>
       <c r="P4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
         <v>883.33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -1153,17 +1200,18 @@
       <c r="M5" s="14">
         <v>0</v>
       </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
+      <c r="N5" s="14"/>
       <c r="O5" s="14">
         <v>0</v>
       </c>
       <c r="P5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -1199,17 +1247,18 @@
       <c r="M6" s="14">
         <v>0</v>
       </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
+      <c r="N6" s="14"/>
       <c r="O6" s="14">
         <v>0</v>
       </c>
       <c r="P6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
         <v>895.83</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -1245,17 +1294,18 @@
       <c r="M7" s="14">
         <v>0</v>
       </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
+      <c r="N7" s="14"/>
       <c r="O7" s="14">
         <v>0</v>
       </c>
       <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
         <v>888.89</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -1291,17 +1341,18 @@
       <c r="M8" s="14">
         <v>0</v>
       </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
+      <c r="N8" s="14"/>
       <c r="O8" s="14">
         <v>0</v>
       </c>
       <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
         <v>881.94</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -1337,17 +1388,18 @@
       <c r="M9" s="14">
         <v>0</v>
       </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
+      <c r="N9" s="14"/>
       <c r="O9" s="14">
         <v>0</v>
       </c>
       <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
         <v>875</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -1383,17 +1435,18 @@
       <c r="M10" s="14">
         <v>0</v>
       </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
+      <c r="N10" s="14"/>
       <c r="O10" s="14">
         <v>0</v>
       </c>
       <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
         <v>868.05</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -1429,17 +1482,18 @@
       <c r="M11" s="14">
         <v>0</v>
       </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
+      <c r="N11" s="14"/>
       <c r="O11" s="14">
         <v>0</v>
       </c>
       <c r="P11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
         <v>861.11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -1475,17 +1529,18 @@
       <c r="M12" s="14">
         <v>0</v>
       </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
+      <c r="N12" s="14"/>
       <c r="O12" s="14">
         <v>0</v>
       </c>
       <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
         <v>854.16</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -1521,17 +1576,18 @@
       <c r="M13" s="14">
         <v>0</v>
       </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
+      <c r="N13" s="14"/>
       <c r="O13" s="14">
         <v>0</v>
       </c>
       <c r="P13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
         <v>847.22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -1567,13 +1623,14 @@
       <c r="M14" s="14">
         <v>0</v>
       </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
+      <c r="N14" s="14"/>
       <c r="O14" s="14">
         <v>0</v>
       </c>
       <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14">
         <v>840.31</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Newcreateloan1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
@@ -189,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,26 +434,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,23 +469,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -966,7 +927,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,8 +944,8 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -1027,10 +988,10 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1103,10 +1064,10 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14">
+        <v>0</v>
+      </c>
       <c r="O3" s="14">
         <v>0</v>
       </c>
@@ -1150,10 +1111,10 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="14">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
       <c r="O4" s="14">
         <v>0</v>
       </c>
@@ -1197,10 +1158,10 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
       <c r="O5" s="14">
         <v>0</v>
       </c>
@@ -1244,10 +1205,10 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="14">
-        <v>0</v>
-      </c>
-      <c r="N6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
       <c r="O6" s="14">
         <v>0</v>
       </c>
@@ -1291,10 +1252,10 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
       <c r="O7" s="14">
         <v>0</v>
       </c>
@@ -1338,10 +1299,10 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
       <c r="O8" s="14">
         <v>0</v>
       </c>
@@ -1385,10 +1346,10 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
       <c r="O9" s="14">
         <v>0</v>
       </c>
@@ -1432,10 +1393,10 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
       <c r="O10" s="14">
         <v>0</v>
       </c>
@@ -1479,10 +1440,10 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
       <c r="O11" s="14">
         <v>0</v>
       </c>
@@ -1526,10 +1487,10 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="14">
-        <v>0</v>
-      </c>
-      <c r="N12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
       <c r="O12" s="14">
         <v>0</v>
       </c>
@@ -1573,10 +1534,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="14">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
       <c r="O13" s="14">
         <v>0</v>
       </c>
@@ -1620,10 +1581,10 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
       <c r="O14" s="14">
         <v>0</v>
       </c>
